--- a/biology/Zoologie/Bulbul_à_menton_jaune/Bulbul_à_menton_jaune.xlsx
+++ b/biology/Zoologie/Bulbul_à_menton_jaune/Bulbul_à_menton_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_menton_jaune</t>
+          <t>Bulbul_à_menton_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycnonotus xantholaemus
 Le Bulbul à menton jaune (Pycnonotus xantholaemus) est une espèce de passereau de la famille des Pycnonotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_menton_jaune</t>
+          <t>Bulbul_à_menton_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique de l'Inde.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_menton_jaune</t>
+          <t>Bulbul_à_menton_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les broussailles sur les affleurements et les collines rocheux dont beaucoup sont menacés par des carrières de granit.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_menton_jaune</t>
+          <t>Bulbul_à_menton_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est gris-olive sur le dos avec une gorge, le dessous et l'extrémité de la queue jaunes. La tête est claire alors que la poitrine et le ventre sont gris. Il ressemble au Bulbul à sourcils blancs mais celui-ci a un sourcil mais pas la gorge jaune.
 Le nom de Konda-Poda-Pigli en télougou a été constaté par T. C. Jerdon.
